--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195187.1123300401</v>
+        <v>208913.4704674582</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>491565.803230223</v>
+      </c>
+      <c r="C2" t="n">
+        <v>491565.803230223</v>
+      </c>
+      <c r="D2" t="n">
         <v>491565.8032302231</v>
-      </c>
-      <c r="C2" t="n">
-        <v>491565.8032302231</v>
-      </c>
-      <c r="D2" t="n">
-        <v>491565.803230223</v>
       </c>
       <c r="E2" t="n">
         <v>60733.3297755166</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9677.756701508129</v>
+        <v>-9677.756701508268</v>
       </c>
       <c r="C6" t="n">
-        <v>-9677.756701508188</v>
+        <v>-9677.756701508268</v>
       </c>
       <c r="D6" t="n">
-        <v>-9677.756701508304</v>
+        <v>-9677.756701508151</v>
       </c>
       <c r="E6" t="n">
-        <v>-75978.28232949172</v>
+        <v>-75978.28232949178</v>
       </c>
       <c r="F6" t="n">
         <v>57121.71767050827</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>208913.4704674582</v>
+        <v>107190.1972019555</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>12382564.12454636</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21607827.340757</v>
+        <v>20513624.20839428</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3729239.675298112</v>
+        <v>4288679.125387715</v>
       </c>
     </row>
     <row r="11">
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9807,16 +9807,16 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23281,10 +23281,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>130.6648563030561</v>
@@ -23357,10 +23357,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>80.29914934735042</v>
@@ -23381,10 +23381,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
         <v>165.0641745378389</v>
@@ -23539,7 +23539,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>173.7492132756177</v>
@@ -23992,31 +23992,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24229,13 +24229,13 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>113.4004983079896</v>
@@ -24305,7 +24305,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
         <v>93.17061249236157</v>
@@ -24332,7 +24332,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
         <v>165.0641745378389</v>
@@ -24399,16 +24399,16 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24466,13 +24466,13 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>113.4004983079896</v>
@@ -24487,7 +24487,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>173.7492132756177</v>
@@ -24703,31 +24703,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
         <v>193.8433399116564</v>
@@ -24806,7 +24806,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
         <v>165.0641745378389</v>
@@ -24940,28 +24940,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>173.7492132756177</v>
@@ -25253,10 +25253,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>80.29914934735042</v>
@@ -25280,7 +25280,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
         <v>165.0641745378389</v>
@@ -25335,7 +25335,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
         <v>94.30397654773019</v>
@@ -25414,7 +25414,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>135.370731907559</v>
@@ -25490,10 +25490,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>80.29914934735042</v>
@@ -25517,7 +25517,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
         <v>165.0641745378389</v>
@@ -25572,28 +25572,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
         <v>163.8605191622716</v>
@@ -25657,7 +25657,7 @@
         <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>113.4004983079896</v>
@@ -25666,16 +25666,16 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
         <v>193.8433399116564</v>
@@ -25964,10 +25964,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>80.29914934735042</v>
@@ -25991,7 +25991,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
         <v>165.0641745378389</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>116405.5487364068</v>
+        <v>171437.0634480109</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>116405.5487364068</v>
+        <v>137653.3006326999</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>116405.5487364068</v>
+        <v>251098.4735650287</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>116405.5487364068</v>
+        <v>190477.8671693386</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>116405.5487364068</v>
+        <v>192834.7638367022</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>116405.5487364068</v>
+        <v>257362.9267813178</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>116405.5487364068</v>
+        <v>225512.7840048308</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>116405.5487364068</v>
+        <v>129038.4975133324</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>116405.5487364068</v>
+        <v>173129.2056453282</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>116405.5487364068</v>
+        <v>201194.7838484384</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>116405.5487364068</v>
+        <v>127605.5936329844</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491565.803230223</v>
+        <v>491565.8032302229</v>
       </c>
       <c r="C2" t="n">
-        <v>491565.803230223</v>
+        <v>491565.8032302228</v>
       </c>
       <c r="D2" t="n">
         <v>491565.8032302231</v>
       </c>
       <c r="E2" t="n">
-        <v>60733.3297755166</v>
+        <v>79335.53193155181</v>
       </c>
       <c r="F2" t="n">
-        <v>60733.3297755166</v>
+        <v>67915.6684446861</v>
       </c>
       <c r="G2" t="n">
         <v>60733.3297755166</v>
       </c>
       <c r="H2" t="n">
-        <v>60733.3297755166</v>
+        <v>106263.3325344874</v>
       </c>
       <c r="I2" t="n">
-        <v>60733.3297755166</v>
+        <v>85771.85995002884</v>
       </c>
       <c r="J2" t="n">
-        <v>60733.3297755166</v>
+        <v>86568.55741505309</v>
       </c>
       <c r="K2" t="n">
-        <v>60733.3297755166</v>
+        <v>108380.894185064</v>
       </c>
       <c r="L2" t="n">
-        <v>60733.3297755166</v>
+        <v>97614.64873949091</v>
       </c>
       <c r="M2" t="n">
-        <v>60733.3297755166</v>
+        <v>65003.6223198295</v>
       </c>
       <c r="N2" t="n">
-        <v>60733.3297755166</v>
+        <v>79907.52366022246</v>
       </c>
       <c r="O2" t="n">
-        <v>60733.3297755166</v>
+        <v>89394.47967254139</v>
       </c>
       <c r="P2" t="n">
-        <v>60733.3297755166</v>
+        <v>64519.26044478228</v>
       </c>
     </row>
     <row r="3">
@@ -26426,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>19377.29391253668</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>7481.602780384896</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>47427.08620726129</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>26081.80226511689</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>26911.6954578505</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>49632.87959327855</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>38418.04058747327</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>4448.221400325934</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>19973.1186299019</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>29855.3644760675</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>3943.677780485084</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9677.756701508268</v>
+        <v>-9721.89248018945</v>
       </c>
       <c r="C6" t="n">
-        <v>-9677.756701508268</v>
+        <v>-9721.892480189508</v>
       </c>
       <c r="D6" t="n">
-        <v>-9677.756701508151</v>
+        <v>-9721.892480189217</v>
       </c>
       <c r="E6" t="n">
-        <v>-75978.28232949178</v>
+        <v>-93973.77116878566</v>
       </c>
       <c r="F6" t="n">
-        <v>57121.71767050827</v>
+        <v>39126.22883121439</v>
       </c>
       <c r="G6" t="n">
-        <v>57121.71767050827</v>
+        <v>39126.22883121438</v>
       </c>
       <c r="H6" t="n">
-        <v>57121.71767050827</v>
+        <v>39126.22883121436</v>
       </c>
       <c r="I6" t="n">
-        <v>57121.71767050827</v>
+        <v>39126.22883121441</v>
       </c>
       <c r="J6" t="n">
-        <v>57121.71767050827</v>
+        <v>39126.22883121439</v>
       </c>
       <c r="K6" t="n">
-        <v>57121.71767050827</v>
+        <v>39126.22883121436</v>
       </c>
       <c r="L6" t="n">
-        <v>57121.71767050827</v>
+        <v>39126.22883121435</v>
       </c>
       <c r="M6" t="n">
-        <v>57121.71767050827</v>
+        <v>39126.22883121439</v>
       </c>
       <c r="N6" t="n">
-        <v>57121.71767050827</v>
+        <v>39126.22883121442</v>
       </c>
       <c r="O6" t="n">
-        <v>57121.71767050827</v>
+        <v>39126.22883121438</v>
       </c>
       <c r="P6" t="n">
-        <v>57121.71767050827</v>
+        <v>39126.22883121438</v>
       </c>
     </row>
   </sheetData>
